--- a/working_spreadsheets.xlsx
+++ b/working_spreadsheets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B494C90D-E0E9-48EE-A221-2EF4D5CBD632}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AE6D96F-16AA-4E6A-B027-B80851727C8E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F489A06-9394-42D5-AB6C-C6D4C1198902}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +912,7 @@
       <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1132,6 +1132,7 @@
     <hyperlink ref="E14" r:id="rId9" xr:uid="{BDF55AFF-6855-4BB0-A004-647D5F418BB0}"/>
     <hyperlink ref="E5" r:id="rId10" xr:uid="{91465F6C-003C-42A2-9B6F-BA9C82B3B034}"/>
     <hyperlink ref="E9" r:id="rId11" xr:uid="{3612ECEB-A2C2-4E17-9673-BC0701EE3B1A}"/>
+    <hyperlink ref="E8" r:id="rId12" xr:uid="{DEAC879E-EE43-44EE-B371-9A7C54EE62E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_spreadsheets.xlsx
+++ b/working_spreadsheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AE6D96F-16AA-4E6A-B027-B80851727C8E}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C87CB0-DAED-4650-944A-05735811CE81}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECAP" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>Commodities</t>
   </si>
@@ -65,18 +65,6 @@
   </si>
   <si>
     <t>PGMs</t>
-  </si>
-  <si>
-    <t>https://ecoquery.ecoinvent.org/3.10.1/cutoff/dataset/5767/documentation</t>
-  </si>
-  <si>
-    <t>https://ecoquery.ecoinvent.org/3.10.1/cutoff/dataset/23390/documentation</t>
-  </si>
-  <si>
-    <t>https://ecoquery.ecoinvent.org/3.10.1/cutoff/dataset/11743/documentation</t>
-  </si>
-  <si>
-    <t>Link_LCI</t>
   </si>
   <si>
     <t>Comment_LCI</t>
@@ -241,9 +229,6 @@
     <t>copper mine operation and beneficiation, sulfide ore</t>
   </si>
   <si>
-    <t>copper concentrate, sulfide ore</t>
-  </si>
-  <si>
     <t>EI 3.8</t>
   </si>
   <si>
@@ -279,6 +264,13 @@
   </si>
   <si>
     <t>aluminium, primary, ingot</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>copper concentrate, sulfide ore
+Molybdenum</t>
   </si>
 </sst>
 </file>
@@ -316,12 +308,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -337,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -347,12 +345,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,10 +372,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,24 +637,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,13 +670,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -685,14 +683,8 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -703,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -713,11 +705,8 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -728,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -739,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -750,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -762,357 +751,357 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{3EC02F34-C8C2-483B-AE96-107CD3758C1F}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{4C79259A-C360-4867-8A77-CB5BB8FB6FD9}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{D7576DEC-0223-4DB3-839E-498C48DC7A77}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F489A06-9394-42D5-AB6C-C6D4C1198902}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="78.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="78.21875" customWidth="1"/>
-    <col min="5" max="5" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{0F489A06-9394-42D5-AB6C-C6D4C1198902}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
